--- a/biology/Médecine/Xavier_Arnozan/Xavier_Arnozan.xlsx
+++ b/biology/Médecine/Xavier_Arnozan/Xavier_Arnozan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Louis Xavier Arnozan, né le 12 novembre 1852 à Bordeaux et mort le 5 février 1928 dans la même ville, est un médecin français, professeur de thérapeutique puis de clinique médicale à la faculté de médecine de Bordeaux, membre de l'Académie de médecine, adjoint au maire de Bordeaux Fernand Philippart, chargé des questions d'hygiène.
 </t>
@@ -511,12 +523,14 @@
           <t>Aperçu biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Descendant d'une famille de négociants[1], il est le fils du pharmacien et du président de la Société de médecine et de chirurgie de Bordeaux, Alfred Arnozan (1815-1888), et de Françoise Clémence Louise Girard[2]. Il est le petit-fils du chirurgien accoucheur Amand Arnozan (1779-1861). Son frère, Gabriel Arnozan (1848-1908) reprendra la pharmacie familiale.
-Après de brillantes études secondaires, il poursuit des études de médecine à la faculté de Bordeaux où il a pour maîtres : Maurice Denucé (d) et Paul-Louis Lande. Il devient interne des hôpitaux de Bordeaux en 1872 avant de se rendre à Paris en 1874 pour y continuer son internat pendant quatre années. En 1879, il soutient sa thèse de médecine intitulée « Étude expérimentale des actes mécaniques du vomissement », qui lui vaut une médaille de bronze. Il devient agrégé en 1880[3],[2].
-L'année suivant il retourne dans sa ville natale pour occuper le poste de directeur du laboratoire d'histologie puis chargé du cours complémentaire de clinique des maladies syphilitiques et cutanées en 1889. Il occupe ensuite la chaire de thérapeutique à partir de 1892 et termine sa carrière universitaire en tant que professeur de clinique médicale jusqu'en 1922[2].
-En parallèle, Arnozan devient adjoint au maire de Bordeaux pendant treize années, membre de la commission administrative des Hospices civils de Bordeaux et vice-président de la Fédération anti-tuberculeuse de la Gironde. Il crée des dispensaires antituberculeux et antivénériens[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descendant d'une famille de négociants, il est le fils du pharmacien et du président de la Société de médecine et de chirurgie de Bordeaux, Alfred Arnozan (1815-1888), et de Françoise Clémence Louise Girard. Il est le petit-fils du chirurgien accoucheur Amand Arnozan (1779-1861). Son frère, Gabriel Arnozan (1848-1908) reprendra la pharmacie familiale.
+Après de brillantes études secondaires, il poursuit des études de médecine à la faculté de Bordeaux où il a pour maîtres : Maurice Denucé (d) et Paul-Louis Lande. Il devient interne des hôpitaux de Bordeaux en 1872 avant de se rendre à Paris en 1874 pour y continuer son internat pendant quatre années. En 1879, il soutient sa thèse de médecine intitulée « Étude expérimentale des actes mécaniques du vomissement », qui lui vaut une médaille de bronze. Il devient agrégé en 1880,.
+L'année suivant il retourne dans sa ville natale pour occuper le poste de directeur du laboratoire d'histologie puis chargé du cours complémentaire de clinique des maladies syphilitiques et cutanées en 1889. Il occupe ensuite la chaire de thérapeutique à partir de 1892 et termine sa carrière universitaire en tant que professeur de clinique médicale jusqu'en 1922.
+En parallèle, Arnozan devient adjoint au maire de Bordeaux pendant treize années, membre de la commission administrative des Hospices civils de Bordeaux et vice-président de la Fédération anti-tuberculeuse de la Gironde. Il crée des dispensaires antituberculeux et antivénériens.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il décrit le syndrome d'Arnozan connu aussi sous le nom de folliculite décalvante de Quinquaud.
-Avec Louis Vaillard (d) (1850-1935), il montrera que la ligature du canal de Wirsung cause l'atrophie du pancréas mais pas de diabète en contradiction avec les travaux de Joseph von Mering (1849-1908) et Oskar Minkowski[4].
+Avec Louis Vaillard (d) (1850-1935), il montrera que la ligature du canal de Wirsung cause l'atrophie du pancréas mais pas de diabète en contradiction avec les travaux de Joseph von Mering (1849-1908) et Oskar Minkowski.
 Il est le directeur du Journal de médecine de Bordeaux.
 </t>
         </is>
@@ -578,7 +594,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Étude expérimentale sur les actes mécaniques du vomissement, V.-A. Delahaye et Cie (Paris), 1879, 1 vol., 114 p., lire en ligne sur Gallica.
 Lésions consécutives aux maladies du système nerveux, Parent (Paris), 1880 - 255 p.
@@ -634,11 +652,13 @@
           <t>Distinctions et hommages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Officier de l'Ordre royal de Saint-Sava[2].
- Commandeur de la Légion d'honneur le 8 février 1927[5],[2].
-Membre correspondant non-résidant de l'Académie de médecine du 11 février 1913 au 23 juin 1925[6],[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier de l'Ordre royal de Saint-Sava.
+ Commandeur de la Légion d'honneur le 8 février 1927,.
+Membre correspondant non-résidant de l'Académie de médecine du 11 février 1913 au 23 juin 1925,.
 Un hôpital situé à Pessac, faisant partie du CHU de Bordeaux (Groupe hospitalier Sud), porte son nom.
 </t>
         </is>
